--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BabySharks\Training\Katalon\KMS---BBS---Katalon-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{30DBA69C-5EBC-47B0-8C6A-8F61FC89B1A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6293B4BC-5710-45ED-A26D-BF2831CBA795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebUI-Basic" sheetId="3" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="318">
   <si>
     <t>Summary</t>
   </si>
@@ -1488,6 +1488,10 @@
   </si>
   <si>
     <t>Calculator.apk</t>
+  </si>
+  <si>
+    <t>Write a keyword (parameters: menu A&gt;menu B&gt;menu C)
+the keyword will wait then click, repeat until the end</t>
   </si>
 </sst>
 </file>
@@ -1949,23 +1953,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9137386-4266-4DC1-801E-FF27489848DF}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2003,7 +2008,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="14">
@@ -2017,7 +2022,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="14">
@@ -2049,7 +2054,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -2067,7 +2072,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="14">
@@ -2081,7 +2086,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="14">
@@ -2095,7 +2100,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="14">
@@ -2109,7 +2114,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>4</v>
       </c>
@@ -2127,7 +2132,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="14">
@@ -2141,7 +2146,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>5</v>
       </c>
@@ -2159,7 +2164,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="14">
@@ -2173,7 +2178,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="14">
@@ -2187,7 +2192,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -2205,7 +2210,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="14">
@@ -2219,7 +2224,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="14">
@@ -2233,7 +2238,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="14">
@@ -2247,7 +2252,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="14">
@@ -2261,7 +2266,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2279,7 +2284,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="14">
@@ -2293,7 +2298,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="14">
@@ -2307,7 +2312,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="14">
@@ -2321,7 +2326,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>8</v>
       </c>
@@ -2339,7 +2344,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="14">
@@ -2353,7 +2358,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="14">
@@ -2367,7 +2372,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="14">
@@ -2381,7 +2386,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>9</v>
       </c>
@@ -2399,7 +2404,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="14">
@@ -2413,7 +2418,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="14">
@@ -2427,7 +2432,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="14">
@@ -2441,7 +2446,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>10</v>
       </c>
@@ -2458,8 +2463,11 @@
         <v>166</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="14">
@@ -2473,7 +2481,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="14">
@@ -2487,7 +2495,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="14">
@@ -2501,7 +2509,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>11</v>
       </c>
@@ -2519,7 +2527,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="14">
@@ -2533,7 +2541,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="14">
@@ -2547,7 +2555,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="14">
@@ -2561,7 +2569,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="14">
@@ -2577,18 +2585,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A36:A40"/>
@@ -2599,6 +2595,18 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2613,17 +2621,17 @@
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -2643,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2659,7 +2667,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="12">
@@ -2673,7 +2681,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="12">
@@ -2687,7 +2695,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -2703,7 +2711,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="12">
@@ -2719,7 +2727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2735,7 +2743,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="12">
@@ -2751,7 +2759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="12"/>
@@ -2781,7 +2789,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>5</v>
       </c>
@@ -2797,7 +2805,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="12">
@@ -2813,7 +2821,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>6</v>
       </c>
@@ -2831,7 +2839,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="12">
@@ -2845,7 +2853,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="12">
@@ -2859,7 +2867,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="12">
@@ -2873,7 +2881,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="12">
@@ -2887,7 +2895,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>7</v>
       </c>
@@ -2903,7 +2911,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="12">
@@ -2917,7 +2925,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="12">
@@ -2931,7 +2939,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="12">
@@ -2945,7 +2953,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="12">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>8</v>
       </c>
@@ -2975,7 +2983,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="12">
@@ -2987,7 +2995,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="12">
@@ -3001,7 +3009,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="12">
@@ -3015,7 +3023,7 @@
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>9</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="12">
@@ -3045,7 +3053,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="12">
@@ -3057,7 +3065,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="12">
@@ -3071,7 +3079,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>10</v>
       </c>
@@ -3087,7 +3095,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="12">
@@ -3099,7 +3107,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="12">
@@ -3113,7 +3121,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="12">
@@ -3127,7 +3135,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>11</v>
       </c>
@@ -3143,7 +3151,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="14">
@@ -3155,7 +3163,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="14">
@@ -3169,7 +3177,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>12</v>
       </c>
@@ -3185,7 +3193,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="14">
@@ -3199,7 +3207,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="14">
@@ -3213,7 +3221,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="14">
@@ -3227,7 +3235,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>13</v>
       </c>
@@ -3243,7 +3251,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="14">
@@ -3257,7 +3265,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="14">
@@ -3271,7 +3279,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="14">
@@ -3285,7 +3293,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="14">
@@ -3299,7 +3307,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="14">
@@ -3313,7 +3321,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="14">
@@ -3327,7 +3335,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>14</v>
       </c>
@@ -3343,7 +3351,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="14">
@@ -3355,7 +3363,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="14">
@@ -3367,7 +3375,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="14">
@@ -3381,7 +3389,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>15</v>
       </c>
@@ -3397,7 +3405,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="14">
@@ -3409,7 +3417,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="14">
@@ -3421,7 +3429,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="14">
@@ -3435,7 +3443,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>16</v>
       </c>
@@ -3451,7 +3459,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="14">
@@ -3463,7 +3471,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="14">
@@ -3475,7 +3483,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="14">
@@ -3489,7 +3497,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>17</v>
       </c>
@@ -3505,7 +3513,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="14">
@@ -3517,7 +3525,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="14">
@@ -3529,7 +3537,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="14">
@@ -3543,7 +3551,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>18</v>
       </c>
@@ -3559,7 +3567,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="14">
@@ -3571,7 +3579,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="14">
@@ -3583,7 +3591,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="14">
@@ -3597,7 +3605,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>19</v>
       </c>
@@ -3613,7 +3621,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="14">
@@ -3627,7 +3635,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="14">
@@ -3641,7 +3649,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="14">
@@ -3655,7 +3663,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>20</v>
       </c>
@@ -3671,7 +3679,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="14">
@@ -3685,7 +3693,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="14">
@@ -3699,7 +3707,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="14">
@@ -3713,7 +3721,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="14">
@@ -3729,6 +3737,38 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A18:A22"/>
@@ -3737,38 +3777,6 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3784,17 +3792,17 @@
       <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -3814,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3832,7 +3840,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="14">
@@ -3846,7 +3854,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14">
@@ -3860,7 +3868,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -3876,7 +3884,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="14">
@@ -3890,7 +3898,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="14">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -3920,7 +3928,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="14">
@@ -3934,7 +3942,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="14">
@@ -3948,7 +3956,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>4</v>
       </c>
@@ -3964,7 +3972,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="14">
@@ -3978,7 +3986,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="14">
@@ -3992,7 +4000,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="14">
@@ -4024,7 +4032,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="15">
@@ -4038,7 +4046,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="14">
@@ -4052,7 +4060,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>6</v>
       </c>
@@ -4068,7 +4076,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="14">
@@ -4082,7 +4090,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="14">
@@ -4096,7 +4104,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="14">
@@ -4110,7 +4118,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>7</v>
       </c>
@@ -4126,7 +4134,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="14">
@@ -4140,7 +4148,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="14">
@@ -4152,7 +4160,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="15">
@@ -4166,7 +4174,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="14">
@@ -4182,12 +4190,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A11:A13"/>
@@ -4196,6 +4198,12 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4206,21 +4214,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13220DC2-A3B2-4453-A09A-EBC4394E8AF5}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4258,7 +4266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15">
@@ -4272,7 +4280,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="17">
@@ -4284,7 +4292,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15">
@@ -4296,7 +4304,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -4312,7 +4320,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15">
@@ -4326,7 +4334,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="17">
@@ -4340,7 +4348,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="15">
@@ -4352,7 +4360,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>3</v>
       </c>
@@ -4368,7 +4376,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="15">
@@ -4382,7 +4390,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="15">
@@ -4396,7 +4404,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -4412,7 +4420,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15">
@@ -4426,7 +4434,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="15">
@@ -4440,7 +4448,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>5</v>
       </c>
@@ -4456,7 +4464,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="15">
@@ -4470,7 +4478,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="15">
@@ -4482,7 +4490,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>6</v>
       </c>
@@ -4498,7 +4506,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="15">
@@ -4512,7 +4520,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="15">
@@ -4524,7 +4532,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="15">
@@ -4538,7 +4546,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>7</v>
       </c>
@@ -4554,7 +4562,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="15">
@@ -4566,7 +4574,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="15">
@@ -4580,7 +4588,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="15">
@@ -4596,6 +4604,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A13:A15"/>
@@ -4604,12 +4618,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4624,17 +4632,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="17">
@@ -4686,7 +4694,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -4702,7 +4710,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="17">
@@ -4716,7 +4724,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -4732,7 +4740,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="17">
@@ -4746,7 +4754,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>4</v>
       </c>
@@ -4762,7 +4770,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="17">
@@ -4778,14 +4786,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4796,21 +4804,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A765EC-713C-4F2D-986F-E85290201AE5}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="19">
@@ -4862,7 +4870,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="19">
@@ -4876,7 +4884,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -4892,7 +4900,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="19">
@@ -4906,7 +4914,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>3</v>
       </c>
@@ -4922,7 +4930,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="19">
@@ -4936,7 +4944,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="19">
@@ -4950,7 +4958,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="19">
@@ -4964,7 +4972,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>4</v>
       </c>
@@ -4980,7 +4988,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="19">
@@ -4994,7 +5002,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>5</v>
       </c>
@@ -5010,7 +5018,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19">
